--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/15/seed3/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.878599999999992</v>
+        <v>8.727399999999996</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.30560000000001</v>
+        <v>-22.50070000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.11169999999999</v>
+        <v>-21.85319999999998</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,16 +597,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.47069999999999</v>
+        <v>-21.48859999999998</v>
       </c>
       <c r="B12" t="n">
-        <v>5.329799999999999</v>
+        <v>5.5612</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.191099999999995</v>
+        <v>-5.911900000000003</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.616099999999987</v>
+        <v>-8.807899999999989</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.647899999999994</v>
+        <v>5.680099999999994</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>4.979699999999997</v>
+        <v>4.532300000000001</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.11660000000001</v>
+        <v>-22.33970000000002</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.082799999999994</v>
+        <v>-7.53439999999999</v>
       </c>
     </row>
     <row r="22">
@@ -788,7 +788,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.486999999999998</v>
+        <v>-7.346099999999996</v>
       </c>
     </row>
     <row r="26">
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.415200000000001</v>
+        <v>4.439000000000001</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.319400000000001</v>
+        <v>6.512100000000003</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.323199999999999</v>
+        <v>6.284199999999998</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.729299999999999</v>
+        <v>-7.664699999999995</v>
       </c>
     </row>
     <row r="33">
@@ -942,15 +942,15 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.157100000000002</v>
+        <v>-7.287499999999998</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-21.82409999999999</v>
+        <v>-21.90679999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>6.1677</v>
+        <v>6.462100000000003</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.1815</v>
+        <v>-8.099800000000004</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.025799999999997</v>
+        <v>-8.437499999999996</v>
       </c>
     </row>
     <row r="42">
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>6.427900000000001</v>
+        <v>6.747300000000004</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.726600000000002</v>
+        <v>-7.799000000000003</v>
       </c>
     </row>
     <row r="53">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.90610000000001</v>
+        <v>-22.07230000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.636099999999994</v>
+        <v>-8.681599999999994</v>
       </c>
     </row>
     <row r="60">
@@ -1342,7 +1342,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>6.499900000000002</v>
+        <v>5.376700000000003</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1376,12 +1376,12 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.273499999999991</v>
+        <v>-7.050499999999996</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.48710000000001</v>
+        <v>-21.4749</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.660099999999998</v>
+        <v>8.769599999999999</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-19.71759999999999</v>
+        <v>-19.81369999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.89149999999999</v>
+        <v>-19.77669999999999</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.18710000000001</v>
+        <v>-22.20210000000001</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.8551</v>
+        <v>-21.9004</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1608,13 +1608,13 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.999600000000006</v>
+        <v>5.907200000000001</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-7.770500000000001</v>
+        <v>-7.7149</v>
       </c>
     </row>
     <row r="85">
@@ -1622,7 +1622,7 @@
         <v>-21.53</v>
       </c>
       <c r="B85" t="n">
-        <v>5.878800000000001</v>
+        <v>5.978300000000001</v>
       </c>
       <c r="C85" t="n">
         <v>-13.1</v>
@@ -1670,7 +1670,7 @@
         <v>-14.32</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.942799999999998</v>
+        <v>-8.0692</v>
       </c>
     </row>
     <row r="89">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.054499999999999</v>
+        <v>-8.069699999999997</v>
       </c>
     </row>
     <row r="90">
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.482999999999999</v>
+        <v>5.457600000000002</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1762,13 +1762,13 @@
         <v>-22.29</v>
       </c>
       <c r="B95" t="n">
-        <v>4.725000000000004</v>
+        <v>5.234900000000001</v>
       </c>
       <c r="C95" t="n">
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.538399999999997</v>
+        <v>-7.559699999999997</v>
       </c>
     </row>
     <row r="96">
@@ -1804,7 +1804,7 @@
         <v>-20.86</v>
       </c>
       <c r="B98" t="n">
-        <v>5.437900000000009</v>
+        <v>5.816000000000005</v>
       </c>
       <c r="C98" t="n">
         <v>-10.59</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>6.023399999999998</v>
+        <v>6.0736</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>6.030099999999999</v>
+        <v>6.456499999999998</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-8.340700000000004</v>
+        <v>-8.301200000000005</v>
       </c>
     </row>
   </sheetData>
